--- a/Gayathri/Timesheet/Schwall_Gayathri_Timesheet_August_2021 - Copy.xlsx
+++ b/Gayathri/Timesheet/Schwall_Gayathri_Timesheet_August_2021 - Copy.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2AC4DC9-A40C-41AD-9316-EA2494C16045}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D60B961-8D18-4172-9C1E-33FABD2810F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="46">
   <si>
     <t>SlNo</t>
   </si>
@@ -153,6 +153,12 @@
   </si>
   <si>
     <t>revise concepts in project using spring database</t>
+  </si>
+  <si>
+    <t>Cms</t>
+  </si>
+  <si>
+    <t>creating new module</t>
   </si>
 </sst>
 </file>
@@ -363,6 +369,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -372,7 +379,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -655,8 +661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:F145"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -669,13 +675,13 @@
   <sheetData>
     <row r="1" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:6" ht="21" x14ac:dyDescent="0.4">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="14"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B3" s="7" t="s">
@@ -738,7 +744,7 @@
       <c r="D6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="11" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="3">
@@ -755,7 +761,7 @@
       <c r="D7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="11" t="s">
         <v>13</v>
       </c>
       <c r="F7" s="3">
@@ -1053,11 +1059,21 @@
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B26" s="2"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="3"/>
+      <c r="B26" s="2">
+        <v>20</v>
+      </c>
+      <c r="C26" s="10">
+        <v>44431</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F26" s="3">
+        <v>8</v>
+      </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B27" s="2"/>
@@ -1919,13 +1935,13 @@
   <sheetData>
     <row r="1" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:6" ht="21" x14ac:dyDescent="0.4">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="14"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B3" s="7" t="s">

--- a/Gayathri/Timesheet/Schwall_Gayathri_Timesheet_August_2021 - Copy.xlsx
+++ b/Gayathri/Timesheet/Schwall_Gayathri_Timesheet_August_2021 - Copy.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D60B961-8D18-4172-9C1E-33FABD2810F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF5E8D5F-D172-4D28-8270-595FF6C4EC1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="48">
   <si>
     <t>SlNo</t>
   </si>
@@ -159,6 +159,12 @@
   </si>
   <si>
     <t>creating new module</t>
+  </si>
+  <si>
+    <t>hibernate</t>
+  </si>
+  <si>
+    <t>how to connect hibernate,cms project</t>
   </si>
 </sst>
 </file>
@@ -661,8 +667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:F145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1076,11 +1082,21 @@
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B27" s="2"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="3"/>
+      <c r="B27" s="2">
+        <v>21</v>
+      </c>
+      <c r="C27" s="10">
+        <v>44432</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F27" s="3">
+        <v>8</v>
+      </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B28" s="2"/>

--- a/Gayathri/Timesheet/Schwall_Gayathri_Timesheet_August_2021 - Copy.xlsx
+++ b/Gayathri/Timesheet/Schwall_Gayathri_Timesheet_August_2021 - Copy.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF5E8D5F-D172-4D28-8270-595FF6C4EC1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AA6E9CA-0957-46B7-BC09-79270922B6F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="50">
   <si>
     <t>SlNo</t>
   </si>
@@ -165,6 +165,12 @@
   </si>
   <si>
     <t>how to connect hibernate,cms project</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jAVA </t>
+  </si>
+  <si>
+    <t>Multi threading concepts</t>
   </si>
 </sst>
 </file>
@@ -668,7 +674,7 @@
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1099,11 +1105,21 @@
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B28" s="2"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="3"/>
+      <c r="B28" s="2">
+        <v>22</v>
+      </c>
+      <c r="C28" s="10">
+        <v>44433</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F28" s="3">
+        <v>7</v>
+      </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B29" s="2"/>

--- a/Gayathri/Timesheet/Schwall_Gayathri_Timesheet_August_2021 - Copy.xlsx
+++ b/Gayathri/Timesheet/Schwall_Gayathri_Timesheet_August_2021 - Copy.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AA6E9CA-0957-46B7-BC09-79270922B6F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22614A0B-56A3-4195-914C-0030C4B48D22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="54">
   <si>
     <t>SlNo</t>
   </si>
@@ -171,6 +171,18 @@
   </si>
   <si>
     <t>Multi threading concepts</t>
+  </si>
+  <si>
+    <t>java class</t>
+  </si>
+  <si>
+    <t>Java 8 features</t>
+  </si>
+  <si>
+    <t>java</t>
+  </si>
+  <si>
+    <t>multi threading concepts</t>
   </si>
 </sst>
 </file>
@@ -673,8 +685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:F145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1122,18 +1134,34 @@
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B29" s="2"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="3"/>
+      <c r="B29" s="2">
+        <v>23</v>
+      </c>
+      <c r="C29" s="10">
+        <v>44434</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F29" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B30" s="2"/>
       <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="3"/>
+      <c r="D30" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F30" s="3">
+        <v>4</v>
+      </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B31" s="2"/>

--- a/Gayathri/Timesheet/Schwall_Gayathri_Timesheet_August_2021 - Copy.xlsx
+++ b/Gayathri/Timesheet/Schwall_Gayathri_Timesheet_August_2021 - Copy.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22614A0B-56A3-4195-914C-0030C4B48D22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B4CA09C-DD7D-4D37-88FE-620E49281BF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="56">
   <si>
     <t>SlNo</t>
   </si>
@@ -183,6 +183,12 @@
   </si>
   <si>
     <t>multi threading concepts</t>
+  </si>
+  <si>
+    <t>predicate interface with example</t>
+  </si>
+  <si>
+    <t>java revision</t>
   </si>
 </sst>
 </file>
@@ -685,8 +691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:F145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1164,18 +1170,38 @@
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B31" s="2"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="3"/>
+      <c r="B31" s="2">
+        <v>24</v>
+      </c>
+      <c r="C31" s="10">
+        <v>44435</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F31" s="3">
+        <v>6</v>
+      </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B32" s="2"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="3"/>
+      <c r="B32" s="2">
+        <v>25</v>
+      </c>
+      <c r="C32" s="10">
+        <v>44436</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F32" s="3">
+        <v>6</v>
+      </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B33" s="2"/>

--- a/Gayathri/Timesheet/Schwall_Gayathri_Timesheet_August_2021 - Copy.xlsx
+++ b/Gayathri/Timesheet/Schwall_Gayathri_Timesheet_August_2021 - Copy.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B4CA09C-DD7D-4D37-88FE-620E49281BF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA7EA4CC-4A75-4929-B26C-389295A5DFB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="58">
   <si>
     <t>SlNo</t>
   </si>
@@ -189,6 +189,12 @@
   </si>
   <si>
     <t>java revision</t>
+  </si>
+  <si>
+    <t>File Handling concepts</t>
+  </si>
+  <si>
+    <t>Exception handling</t>
   </si>
 </sst>
 </file>
@@ -691,8 +697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:F145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1204,18 +1210,38 @@
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B33" s="2"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="3"/>
+      <c r="B33" s="2">
+        <v>26</v>
+      </c>
+      <c r="C33" s="10">
+        <v>44438</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F33" s="3">
+        <v>6</v>
+      </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B34" s="2"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="3"/>
+      <c r="B34" s="2">
+        <v>27</v>
+      </c>
+      <c r="C34" s="10">
+        <v>44439</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F34" s="3">
+        <v>5</v>
+      </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B35" s="2"/>
